--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -61,238 +61,277 @@
     <t>low</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>masks</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>masks</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>stores</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>essential</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>prices</t>
   </si>
   <si>
     <t>workers</t>
   </si>
   <si>
     <t>go</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
   <si>
     <t>people</t>
@@ -656,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,10 +703,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,28 +785,28 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9401709401709402</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -775,13 +814,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7671232876712328</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="C4">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D4">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -793,31 +832,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.8976377952755905</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,31 +882,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8807339449541285</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -875,49 +914,49 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E6">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8368794326241135</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -925,13 +964,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4922480620155039</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="C7">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D7">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,31 +982,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8275862068965517</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N7">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -975,13 +1014,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3246753246753247</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -993,31 +1032,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7948717948717948</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L8">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1046,244 +1085,172 @@
         <v>115</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8309859154929577</v>
+      </c>
+      <c r="L9">
+        <v>118</v>
+      </c>
+      <c r="M9">
+        <v>118</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.81875</v>
+      </c>
+      <c r="L10">
+        <v>131</v>
+      </c>
+      <c r="M10">
+        <v>131</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>0.8085106382978723</v>
+      </c>
+      <c r="L11">
+        <v>38</v>
+      </c>
+      <c r="M11">
+        <v>38</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K9">
-        <v>0.7878787878787878</v>
-      </c>
-      <c r="L9">
-        <v>78</v>
-      </c>
-      <c r="M9">
-        <v>85</v>
-      </c>
-      <c r="N9">
-        <v>0.92</v>
-      </c>
-      <c r="O9">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.0231832367365136</v>
-      </c>
-      <c r="C10">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>916</v>
-      </c>
-      <c r="E10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2191</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.7718832891246684</v>
-      </c>
-      <c r="L10">
-        <v>291</v>
-      </c>
-      <c r="M10">
-        <v>297</v>
-      </c>
-      <c r="N10">
-        <v>0.98</v>
-      </c>
-      <c r="O10">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.02213788741302973</v>
-      </c>
-      <c r="C11">
-        <v>35</v>
-      </c>
-      <c r="D11">
-        <v>597</v>
-      </c>
-      <c r="E11">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1546</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.7675438596491229</v>
-      </c>
-      <c r="L11">
-        <v>175</v>
-      </c>
-      <c r="M11">
-        <v>186</v>
-      </c>
-      <c r="N11">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.01135473766640564</v>
-      </c>
-      <c r="C12">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>676</v>
-      </c>
-      <c r="E12">
-        <v>0.96</v>
-      </c>
-      <c r="F12">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2525</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.725</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N12">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7222222222222222</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7056737588652482</v>
+        <v>0.7740585774058577</v>
       </c>
       <c r="L14">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="M14">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6739130434782609</v>
+        <v>0.7545691906005222</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,125 +1262,125 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6738461538461539</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>106</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6470588235294118</v>
+        <v>0.7152542372881356</v>
       </c>
       <c r="L17">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="M17">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6140350877192983</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.582089552238806</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.5555555555555556</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1425,177 +1392,177 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.4854368932038835</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="M21">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="N21">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>106</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.4826732673267327</v>
+        <v>0.640625</v>
       </c>
       <c r="L22">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>209</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.4746835443037974</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L23">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="M23">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.46875</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.4616977225672878</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L25">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>260</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.4591194968553459</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="L26">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4375</v>
+        <v>0.52</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1607,203 +1574,203 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.415929203539823</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4098765432098765</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>239</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4</v>
+        <v>0.4880382775119617</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="N30">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31">
+        <v>0.4845360824742268</v>
+      </c>
+      <c r="L31">
         <v>47</v>
       </c>
-      <c r="K31">
-        <v>0.3961038961038961</v>
-      </c>
-      <c r="L31">
-        <v>61</v>
-      </c>
       <c r="M31">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N31">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.3894736842105263</v>
+        <v>0.4779874213836478</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3850931677018634</v>
+        <v>0.4744186046511628</v>
       </c>
       <c r="L33">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="M33">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.3787878787878788</v>
+        <v>0.4723926380368098</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3736263736263736</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1815,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3673469387755102</v>
+        <v>0.4580152671755725</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1841,151 +1808,151 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3656716417910448</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="L37">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3601895734597156</v>
+        <v>0.4547325102880658</v>
       </c>
       <c r="L38">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="M38">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>135</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.359375</v>
+        <v>0.4402985074626866</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="M39">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.3506493506493507</v>
+        <v>0.4396551724137931</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.3464052287581699</v>
+        <v>0.4379562043795621</v>
       </c>
       <c r="L41">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="M41">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>200</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42">
+        <v>0.4360902255639098</v>
+      </c>
+      <c r="L42">
         <v>58</v>
       </c>
-      <c r="K42">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="L42">
-        <v>40</v>
-      </c>
       <c r="M42">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1997,47 +1964,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.3424657534246575</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L43">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.3414634146341464</v>
+        <v>0.4213836477987422</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2049,229 +2016,229 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.3397947548460661</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L45">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>579</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.3333333333333333</v>
+        <v>0.4093023255813953</v>
       </c>
       <c r="L46">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>74</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.3318777292576419</v>
+        <v>0.4050632911392405</v>
       </c>
       <c r="L47">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="N47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>153</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.3178733031674208</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L48">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="M48">
-        <v>298</v>
+        <v>50</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>603</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.3091603053435115</v>
+        <v>0.4014423076923077</v>
       </c>
       <c r="L49">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="M49">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>181</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.3010752688172043</v>
+        <v>0.4</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N50">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.2991202346041056</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L51">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="N51">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>239</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.2974910394265233</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="L52">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="M52">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N52">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>392</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.2903225806451613</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L53">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2283,151 +2250,151 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.284375</v>
+        <v>0.3878787878787879</v>
       </c>
       <c r="L54">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="M54">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="N54">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>229</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.2828150572831424</v>
+        <v>0.3814432989690721</v>
       </c>
       <c r="L55">
-        <v>864</v>
+        <v>37</v>
       </c>
       <c r="M55">
-        <v>916</v>
+        <v>37</v>
       </c>
       <c r="N55">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2191</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.27</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M56">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N56">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.2666034155597723</v>
+        <v>0.3652173913043478</v>
       </c>
       <c r="L57">
-        <v>562</v>
+        <v>84</v>
       </c>
       <c r="M57">
-        <v>597</v>
+        <v>84</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1546</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.2609375</v>
+        <v>0.36</v>
       </c>
       <c r="L58">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="M58">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>473</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.2605042016806723</v>
+        <v>0.3572228443449048</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>319</v>
       </c>
       <c r="M59">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2436,76 +2403,76 @@
         <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>88</v>
+        <v>574</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.25</v>
+        <v>0.3553008595988539</v>
       </c>
       <c r="L60">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="M60">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="N60">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>99</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.2327485380116959</v>
+        <v>0.3356643356643357</v>
       </c>
       <c r="L61">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="M61">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c r="N61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>656</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.2293577981651376</v>
+        <v>0.3318534961154273</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2517,21 +2484,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>84</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.2272727272727273</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L63">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M63">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N63">
         <v>0.97</v>
@@ -2543,163 +2510,163 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.2237762237762238</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L64">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M64">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.2204724409448819</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L65">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M65">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N65">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.217948717948718</v>
+        <v>0.3119266055045872</v>
       </c>
       <c r="L66">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M66">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>183</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.2132352941176471</v>
+        <v>0.3071161048689138</v>
       </c>
       <c r="L67">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="M67">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>107</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K68">
-        <v>0.2065217391304348</v>
+        <v>0.3027522935779817</v>
       </c>
       <c r="L68">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="M68">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="N68">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>146</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.2039722572509458</v>
+        <v>0.3026400515132003</v>
       </c>
       <c r="L69">
-        <v>647</v>
+        <v>940</v>
       </c>
       <c r="M69">
-        <v>676</v>
+        <v>941</v>
       </c>
       <c r="N69">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>2525</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2707,25 +2674,25 @@
         <v>83</v>
       </c>
       <c r="K70">
-        <v>0.201219512195122</v>
+        <v>0.2890625</v>
       </c>
       <c r="L70">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M70">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2733,25 +2700,25 @@
         <v>84</v>
       </c>
       <c r="K71">
-        <v>0.1865671641791045</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L71">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M71">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N71">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2759,25 +2726,25 @@
         <v>85</v>
       </c>
       <c r="K72">
-        <v>0.180327868852459</v>
+        <v>0.2804878048780488</v>
       </c>
       <c r="L72">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M72">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N72">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>250</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2785,25 +2752,25 @@
         <v>86</v>
       </c>
       <c r="K73">
-        <v>0.1739130434782609</v>
+        <v>0.2768959435626102</v>
       </c>
       <c r="L73">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="M73">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="N73">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>228</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2811,25 +2778,25 @@
         <v>87</v>
       </c>
       <c r="K74">
-        <v>0.1548672566371681</v>
+        <v>0.2727697337692667</v>
       </c>
       <c r="L74">
-        <v>35</v>
+        <v>584</v>
       </c>
       <c r="M74">
-        <v>36</v>
+        <v>586</v>
       </c>
       <c r="N74">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>191</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2837,25 +2804,25 @@
         <v>88</v>
       </c>
       <c r="K75">
-        <v>0.1524663677130045</v>
+        <v>0.2604006163328197</v>
       </c>
       <c r="L75">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="M75">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="N75">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O75">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>189</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2863,25 +2830,25 @@
         <v>89</v>
       </c>
       <c r="K76">
-        <v>0.152046783625731</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L76">
         <v>26</v>
       </c>
       <c r="M76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2889,25 +2856,25 @@
         <v>90</v>
       </c>
       <c r="K77">
-        <v>0.1505016722408027</v>
+        <v>0.2566371681415929</v>
       </c>
       <c r="L77">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M77">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N77">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>254</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2915,25 +2882,25 @@
         <v>91</v>
       </c>
       <c r="K78">
-        <v>0.1305555555555556</v>
+        <v>0.25</v>
       </c>
       <c r="L78">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M78">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>313</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2941,25 +2908,25 @@
         <v>92</v>
       </c>
       <c r="K79">
-        <v>0.1303214596003475</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="L79">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="M79">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>1001</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2967,25 +2934,25 @@
         <v>93</v>
       </c>
       <c r="K80">
-        <v>0.1001855287569573</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L80">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="M80">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N80">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>485</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2993,25 +2960,363 @@
         <v>94</v>
       </c>
       <c r="K81">
-        <v>0.07411273486430063</v>
+        <v>0.2260668973471742</v>
       </c>
       <c r="L81">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="M81">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="N81">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>887</v>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K82">
+        <v>0.21875</v>
+      </c>
+      <c r="L82">
+        <v>28</v>
+      </c>
+      <c r="M82">
+        <v>28</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K83">
+        <v>0.2128325508607199</v>
+      </c>
+      <c r="L83">
+        <v>680</v>
+      </c>
+      <c r="M83">
+        <v>686</v>
+      </c>
+      <c r="N83">
+        <v>0.99</v>
+      </c>
+      <c r="O83">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K84">
+        <v>0.2099644128113879</v>
+      </c>
+      <c r="L84">
+        <v>59</v>
+      </c>
+      <c r="M84">
+        <v>59</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K85">
+        <v>0.2053571428571428</v>
+      </c>
+      <c r="L85">
+        <v>46</v>
+      </c>
+      <c r="M85">
+        <v>47</v>
+      </c>
+      <c r="N85">
+        <v>0.98</v>
+      </c>
+      <c r="O85">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K86">
+        <v>0.1976744186046512</v>
+      </c>
+      <c r="L86">
+        <v>34</v>
+      </c>
+      <c r="M86">
+        <v>34</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K87">
+        <v>0.1968503937007874</v>
+      </c>
+      <c r="L87">
+        <v>25</v>
+      </c>
+      <c r="M87">
+        <v>25</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K88">
+        <v>0.1945945945945946</v>
+      </c>
+      <c r="L88">
+        <v>36</v>
+      </c>
+      <c r="M88">
+        <v>36</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K89">
+        <v>0.173202614379085</v>
+      </c>
+      <c r="L89">
+        <v>53</v>
+      </c>
+      <c r="M89">
+        <v>53</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K90">
+        <v>0.1515934539190353</v>
+      </c>
+      <c r="L90">
+        <v>176</v>
+      </c>
+      <c r="M90">
+        <v>176</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K91">
+        <v>0.1433333333333333</v>
+      </c>
+      <c r="L91">
+        <v>43</v>
+      </c>
+      <c r="M91">
+        <v>43</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K92">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="L92">
+        <v>46</v>
+      </c>
+      <c r="M92">
+        <v>46</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K93">
+        <v>0.1100917431192661</v>
+      </c>
+      <c r="L93">
+        <v>60</v>
+      </c>
+      <c r="M93">
+        <v>60</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K94">
+        <v>0.07763975155279502</v>
+      </c>
+      <c r="L94">
+        <v>75</v>
+      </c>
+      <c r="M94">
+        <v>77</v>
+      </c>
+      <c r="N94">
+        <v>0.97</v>
+      </c>
+      <c r="O94">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>891</v>
       </c>
     </row>
   </sheetData>
